--- a/data/income_statement/3digits/total/582_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/582_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>582-Software publishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>582-Software publishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>54342.96442</v>
@@ -971,25 +877,30 @@
         <v>274625.31906</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>603922.9673400001</v>
+        <v>603922.9673399999</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1395921.42257</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2881238.43425</v>
+        <v>2886208.74823</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3361970.49627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3380234.63455</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>5409196.043</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>51273.58300999999</v>
+        <v>51273.58301</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>35528.37217</v>
@@ -1001,7 +912,7 @@
         <v>61543.05598</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>85904.25631999999</v>
+        <v>85904.25632000001</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>81214.17264</v>
@@ -1016,16 +927,21 @@
         <v>364007.447</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>683432.8885499999</v>
+        <v>683613.73824</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>674734.2703100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>676472.1529600001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>973105.273</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2830.7861</v>
@@ -1040,7 +956,7 @@
         <v>24279.74667</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>40211.2866</v>
+        <v>40211.28660000001</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>62053.41934</v>
@@ -1049,22 +965,27 @@
         <v>149708.23204</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>432523.82861</v>
+        <v>432523.8286100001</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1026245.92355</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2194398.05857</v>
+        <v>2199095.80199</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2674881.735699999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2691407.99133</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4376599.041</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>238.59531</v>
@@ -1094,16 +1015,21 @@
         <v>5668.052019999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3407.48713</v>
+        <v>3499.208000000001</v>
       </c>
       <c r="M8" s="48" t="n">
         <v>12354.49026</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>59491.729</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1718.15437</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>32192.42018</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>30587.349</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>193.25539</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>23445.77158</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>16206.909</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1524.89898</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>8746.6486</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>14310.02</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>70.42</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>52624.81005000001</v>
@@ -1271,7 +1217,7 @@
         <v>46383.68303</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>84820.95469999999</v>
+        <v>84820.9547</v>
       </c>
       <c r="G13" s="47" t="n">
         <v>122557.56896</v>
@@ -1283,22 +1229,27 @@
         <v>272348.66184</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>601221.4769499999</v>
+        <v>601221.47695</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1392163.89807</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2854856.55099</v>
+        <v>2859826.86497</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3329778.07609</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3348042.214370001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5378608.694</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>32675.99239</v>
@@ -1313,7 +1264,7 @@
         <v>63828.23511</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>79122.33596000001</v>
+        <v>79122.33596</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>101655.79707</v>
@@ -1322,22 +1273,27 @@
         <v>138321.87744</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>225616.92652</v>
+        <v>225657.18912</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>213173.5295</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>438020.54824</v>
+        <v>438556.2118399999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>562681.0843700001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>566977.6081599999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1800403.008</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4453.81164</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>45118.79267</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>63641.896</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1740.52549</v>
@@ -1397,7 +1358,7 @@
         <v>15615.94369</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5199.06932</v>
+        <v>5199.069320000001</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>8181.58994</v>
@@ -1406,16 +1367,21 @@
         <v>58014.5194</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>208713.91001</v>
+        <v>209018.40808</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>179643.85997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>180806.43392</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>324006.659</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>26480.5566</v>
@@ -1430,31 +1396,36 @@
         <v>44266.46068</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>48905.77254000001</v>
+        <v>48905.77254</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>58656.89298999999</v>
+        <v>58656.89299</v>
       </c>
       <c r="I17" s="48" t="n">
         <v>112600.0503</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>171018.98759</v>
+        <v>171059.25019</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>111564.37934</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>182278.67709</v>
+        <v>182509.84262</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>337839.87437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>340973.82421</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1412745.741</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1.09866</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>78.55736</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>8.712</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>19948.81766</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>3325.92825</v>
+        <v>3325.928249999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>14191.66794</v>
@@ -1517,22 +1493,27 @@
         <v>134026.7844</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>375604.55043</v>
+        <v>375564.28783</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1178990.36857</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2416836.00275</v>
+        <v>2421270.65313</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2767096.99172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2781064.60621</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3578205.686</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>20170.48654</v>
@@ -1541,7 +1522,7 @@
         <v>10899.54062</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9720.03037</v>
+        <v>9720.030369999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>25869.57189</v>
@@ -1550,7 +1531,7 @@
         <v>41699.33242</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>51663.63287</v>
+        <v>51663.63286999999</v>
       </c>
       <c r="I20" s="47" t="n">
         <v>126349.72387</v>
@@ -1559,22 +1540,27 @@
         <v>374506.56915</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>659797.26775</v>
+        <v>659797.2677499999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2086284.78606</v>
+        <v>2089363.82627</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2162926.28962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2170772.20052</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3286184.96</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>7191.76235</v>
+        <v>7191.762350000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>4230.51845</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>9526.519060000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>12341.134</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>4112.05319</v>
@@ -1631,7 +1622,7 @@
         <v>17482.36862</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>85654.12230999999</v>
+        <v>85654.12231000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>315287.00335</v>
@@ -1640,16 +1631,21 @@
         <v>530107.33268</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1860972.04866</v>
+        <v>1861077.37459</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1894000.69831</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1897340.86298</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2166181.568</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>8866.671</v>
@@ -1679,28 +1675,33 @@
         <v>127632.77628</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>217596.7535</v>
+        <v>220570.46778</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>259399.07225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>263904.81848</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1107662.258</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-221.6688800000001</v>
+        <v>-221.66888</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>-7573.612370000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>4471.63757</v>
+        <v>4471.637570000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-4876.8523</v>
+        <v>-4876.852299999999</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>1735.90058</v>
@@ -1712,22 +1713,27 @@
         <v>7677.060530000002</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1097.981280000001</v>
+        <v>1057.71868</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>519193.10082</v>
+        <v>519193.1008200001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>330551.21669</v>
+        <v>331906.82686</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>604170.7021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>610292.40569</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>292020.726</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2510.56811</v>
@@ -1751,22 +1757,27 @@
         <v>38856.63765</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>54124.99635</v>
+        <v>54124.99634999999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>70750.28889</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>435744.15634</v>
+        <v>441430.21585</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>246750.61013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>249646.94465</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>551446.481</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1954.9424</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>60.889</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>451.58959</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>803.0125799999998</v>
+        <v>803.01258</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>2257.89362</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>29457.1891</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>31323.325</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1.90678</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>479.921</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>39.91223</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2734.109</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>11.74234</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>338.2585</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>151.982</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>910.0795199999999</v>
+        <v>910.07952</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1540.11691</v>
@@ -2024,22 +2065,27 @@
         <v>37942.59774</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>45183.30091</v>
+        <v>45183.30090999999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>54058.60776000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>407605.59557</v>
+        <v>413289.97908</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>211480.16389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>214371.84654</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>511743.876</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9.281319999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1127.87534</v>
@@ -2138,28 +2194,33 @@
         <v>578.11279</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>-4441.442619999999</v>
+        <v>-4441.44262</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>461.56037</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>412.8399200000001</v>
+        <v>412.83992</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2734.43255</v>
+        <v>2736.10855</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3478.23723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3482.8891</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4952.379</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>807.1691599999999</v>
+        <v>807.16916</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>1547.18149</v>
@@ -2186,16 +2247,21 @@
         <v>44883.62273</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>292078.92924</v>
+        <v>297840.5208</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>127878.39037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>130792.70943</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>315534.006</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>106.28334</v>
@@ -2222,7 +2288,7 @@
         <v>875.7296</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>883.5827899999999</v>
+        <v>883.58279</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>382.07484</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>525.73294</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1383.523</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>50.36432</v>
@@ -2261,7 +2332,7 @@
         <v>479.06409</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>686.7527299999999</v>
+        <v>686.75273</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>3094.92664</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>58.72234</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>32.412</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2306,13 +2382,18 @@
         <v>40</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.38689</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0.849</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>642.9863700000001</v>
@@ -2339,19 +2420,24 @@
         <v>17926.96269</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>41059.06132</v>
+        <v>41059.06131999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>287240.48744</v>
+        <v>292989.196</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>127117.07368</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>130031.00585</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>313275.692</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7.535129999999999</v>
@@ -2459,16 +2555,21 @@
         <v>2254.22589</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1321.44032</v>
+        <v>1334.32332</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>176.86141</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>841.53</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>1227.75889</v>
@@ -2480,7 +2581,7 @@
         <v>337.86607</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>269.88583</v>
+        <v>269.8858299999999</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>325.54888</v>
@@ -2498,16 +2599,21 @@
         <v>2244.89789</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5501.16713</v>
+        <v>5502.942140000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7243.52257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7245.41693</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9683.511</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1227.75889</v>
@@ -2525,10 +2631,10 @@
         <v>325.54888</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>623.1016499999999</v>
+        <v>623.1016500000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>776.0040499999999</v>
+        <v>776.00405</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>1240.44196</v>
@@ -2537,16 +2643,21 @@
         <v>2244.89789</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5501.16713</v>
+        <v>5502.94214</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7243.52257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7245.41693</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>9683.511</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,62 +2692,72 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>253.9711800000004</v>
+        <v>253.9711799999997</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6761.347709999999</v>
+        <v>-6761.347710000001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>10174.14916</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-5857.761100000001</v>
+        <v>-5857.7611</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>18192.74698</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-922.4860599999996</v>
+        <v>-922.4860600000005</v>
       </c>
       <c r="I47" s="47" t="n">
         <v>33382.93829</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>34642.8699</v>
+        <v>34602.6073</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>542814.8690900001</v>
+        <v>542814.8690899998</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>468715.27666</v>
+        <v>469993.57977</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>715799.3992900001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>721901.22398</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>518249.69</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>662.86762</v>
+        <v>662.8676200000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>440.92104</v>
+        <v>440.9210400000001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>163.27299</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>651.0647999999999</v>
+        <v>651.0648</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>275.42574</v>
@@ -2648,22 +2769,27 @@
         <v>1815.57216</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4372.119809999999</v>
+        <v>4372.120849999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>2236.94232</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8899.834979999998</v>
+        <v>8909.240619999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5614.12375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5616.46743</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8518.152</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>19.43131</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>9.119959999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>643.43631</v>
@@ -2726,22 +2857,27 @@
         <v>1766.90409</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4372.119809999999</v>
+        <v>4372.120849999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2163.18762</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8899.834979999998</v>
+        <v>8909.24062</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5605.00379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5607.34747</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8518.152</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1585.19402</v>
@@ -2750,7 +2886,7 @@
         <v>555.84113</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7681.81815</v>
+        <v>7681.818149999999</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>2234.2984</v>
@@ -2765,22 +2901,27 @@
         <v>1688.63169</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6765.16292</v>
+        <v>6765.16396</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>6289.19995</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>90807.98415999999</v>
+        <v>90817.65078</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8632.534809999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8635.192060000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13644.643</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>339.30972</v>
@@ -2828,7 +2974,7 @@
         <v>200.09109</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6.37129</v>
+        <v>6.371289999999999</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>57.1123</v>
@@ -2843,22 +2989,27 @@
         <v>2.95833</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>53.46429</v>
+        <v>53.46533</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>177.50375</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1394.41304</v>
+        <v>1397.52407</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2737.6961</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2739.94628</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>110.445</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1245.8843</v>
@@ -2870,7 +3021,7 @@
         <v>7675.446859999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2177.1861</v>
+        <v>2177.186099999999</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>4925.88409</v>
@@ -2882,34 +3033,39 @@
         <v>1467.39992</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6711.698630000001</v>
+        <v>6711.69863</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>6111.6962</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>89413.57112000001</v>
+        <v>89420.12671</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5894.83871</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5895.245779999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>13534.198</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-668.3552199999997</v>
+        <v>-668.3552200000003</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-6876.267799999999</v>
+        <v>-6876.267800000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2655.604000000001</v>
+        <v>2655.603999999998</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-7440.9947</v>
+        <v>-7440.994699999999</v>
       </c>
       <c r="G55" s="47" t="n">
         <v>13541.87823</v>
@@ -2921,22 +3077,27 @@
         <v>33509.87876</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>32249.82679</v>
+        <v>32209.56419</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>538762.61146</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>386807.1274800001</v>
+        <v>388085.16961</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>712780.98823</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>718882.4993500002</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>513123.199</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>116.51806</v>
@@ -2966,28 +3127,33 @@
         <v>101812.40517</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>88990.30018999999</v>
+        <v>89036.06211</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>154048.73231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>155483.31968</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>109159.832</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-784.8732800000002</v>
+        <v>-784.87328</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-6970.30092</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2596.95815</v>
+        <v>2596.958149999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-7620.846299999999</v>
+        <v>-7620.846300000003</v>
       </c>
       <c r="G57" s="47" t="n">
         <v>13174.13829</v>
@@ -2999,19 +3165,22 @@
         <v>31698.70814</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>18313.49648</v>
+        <v>18273.23388</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>436950.2062899999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>297816.82729</v>
+        <v>299049.1075</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>558732.2559199999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>563399.17967</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>403963.367</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>31</v>
@@ -3044,28 +3216,31 @@
         <v>57</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H59" s="35" t="n">
         <v>96</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>159</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>203</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>